--- a/Artifact Experiment/Daisuke 25-7-18/2018-07-25 16.28.00 PRESENTATION DAISUKE LEFT HAND NOT MOVING/movementAcceleration.xlsx
+++ b/Artifact Experiment/Daisuke 25-7-18/2018-07-25 16.28.00 PRESENTATION DAISUKE LEFT HAND NOT MOVING/movementAcceleration.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\TPS 2A\Stage 2A\TNO\cleaning signal\stimuli\Daisuke 25-7-18\2018-07-25 16.28.00 PRESENTATION DAISUKE LEFT HAND NOT MOVING\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{224952FC-DADD-42BD-854F-B44DE46CE7F3}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{953951D2-714D-47DA-AC43-254265D349DD}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="7848" xr2:uid="{43E68CBD-0FE2-4433-B0EB-934B6A8CE361}"/>
   </bookViews>
